--- a/train_data.xlsx
+++ b/train_data.xlsx
@@ -152,7 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -201,6 +201,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -514,13 +517,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="72.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="31.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +553,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,7 +566,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
